--- a/doc/ТаблПерехКонАвт (1).xlsx
+++ b/doc/ТаблПерехКонАвт (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ф\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E4C3E3-4BFA-4374-8113-FB1A9E8FB6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D108207D-95F3-412D-B23C-FE80CC25E3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5217BE9C-DBB8-4196-9809-F175477F91C0}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>q8</t>
   </si>
   <si>
-    <t>q9</t>
-  </si>
-  <si>
     <t>ц или +</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>q0</t>
   </si>
 </sst>
 </file>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B669B59E-F88A-4F3E-8CFD-70D6CE3FF654}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,117 +463,117 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2">
+        <v>0</v>
+      </c>
+      <c r="N1" s="2">
         <v>1</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>2</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>3</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>4</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>5</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>6</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>7</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>8</v>
-      </c>
-      <c r="U1" s="2">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -584,37 +584,37 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -624,39 +624,39 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P4" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S4" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -664,35 +664,35 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -700,11 +700,11 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -716,32 +716,32 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -750,7 +750,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -758,59 +758,59 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U8" s="2"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -820,10 +820,10 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
